--- a/output/fit_clients/fit_round_373.xlsx
+++ b/output/fit_clients/fit_round_373.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1714140155.781376</v>
+        <v>2243985550.859684</v>
       </c>
       <c r="F2" t="n">
-        <v>0.110406358588434</v>
+        <v>0.1014380158149829</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03513842122599575</v>
+        <v>0.03415195112055663</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>857070035.1073402</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2620377493.399221</v>
+        <v>1844957631.655052</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1740859730382263</v>
+        <v>0.1288796304908661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03625967206584867</v>
+        <v>0.03723922039779218</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1310188882.843614</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3338685161.965898</v>
+        <v>3701257209.544306</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1421945340016106</v>
+        <v>0.1626853887178026</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02849921927309539</v>
+        <v>0.03700846000797555</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>134</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1669342548.319576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4239753954.774533</v>
+        <v>3029666582.975957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06898909155265297</v>
+        <v>0.09851608695149729</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03700267480242515</v>
+        <v>0.03476840094004828</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>138</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2119876965.260344</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2549054629.300056</v>
+        <v>2118395628.825168</v>
       </c>
       <c r="F6" t="n">
-        <v>0.101530869378215</v>
+        <v>0.1020214602358798</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0461662820511299</v>
+        <v>0.05254171582112242</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>70</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1274527284.835377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2112076891.191934</v>
+        <v>2558975905.401677</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0978027462014555</v>
+        <v>0.1008815584002594</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04533106623597599</v>
+        <v>0.04152885592314901</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>117</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1056038496.027684</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3141907064.95409</v>
+        <v>3042997732.305726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1621791167042905</v>
+        <v>0.1615475542125655</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0300928543979546</v>
+        <v>0.03065162562072105</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>119</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1570953604.508962</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1464482362.788634</v>
+        <v>1751822439.376619</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1382862885493004</v>
+        <v>0.1623540156666494</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03100925525207176</v>
+        <v>0.02838581289546196</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>732241282.3176259</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3769634189.325095</v>
+        <v>4175320318.864655</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1917334361371769</v>
+        <v>0.1671417445925621</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05416507439444425</v>
+        <v>0.04806459998980327</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>157</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1884817098.711485</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3045053679.672417</v>
+        <v>3563267475.821865</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1502947518218493</v>
+        <v>0.1270000284205881</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03609171604712613</v>
+        <v>0.04168284723349568</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>154</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1522526785.936636</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2071309723.404095</v>
+        <v>2469491032.486026</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1588597763738046</v>
+        <v>0.1209727594283458</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04803853260599943</v>
+        <v>0.05367371790322777</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>127</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1035654794.683001</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4444386587.828003</v>
+        <v>5071910276.756712</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07037117044668555</v>
+        <v>0.09316143068454151</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02622913773962353</v>
+        <v>0.01960153899351941</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>125</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2222193326.279539</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3337065580.083417</v>
+        <v>2581448910.289889</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1308657786756751</v>
+        <v>0.1697587259033476</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03295606495741394</v>
+        <v>0.03190646301016586</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1668532800.084118</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1688117652.282696</v>
+        <v>1730241072.107081</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08416548285842218</v>
+        <v>0.08693979018439903</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03412105569548762</v>
+        <v>0.03340913277222669</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>844058954.3143837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2596282347.756506</v>
+        <v>2125614692.46021</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07781718830321778</v>
+        <v>0.07988325852224062</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04962443762523913</v>
+        <v>0.04191895578447007</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>75</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1298141196.106922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3642587329.753012</v>
+        <v>3391517703.843372</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1098689928581359</v>
+        <v>0.1271422316914635</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04276622111373518</v>
+        <v>0.04630530739683088</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>110</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1821293717.143866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3658884789.500191</v>
+        <v>3197746573.891033</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1172682135317662</v>
+        <v>0.1492497807038702</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02819024953893607</v>
+        <v>0.02588636328603037</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>122</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1829442377.36921</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>999530731.055364</v>
+        <v>1311712431.521446</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1680509683340467</v>
+        <v>0.1428249182176747</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02339999816942065</v>
+        <v>0.02286318270398336</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>499765394.6452644</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2423574294.338089</v>
+        <v>2669903656.51883</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1050789126418153</v>
+        <v>0.1171388419619706</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01937840145969793</v>
+        <v>0.02249808202966234</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>48</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1211787128.41942</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2348671037.294423</v>
+        <v>1720110186.570867</v>
       </c>
       <c r="F21" t="n">
-        <v>0.080737790849577</v>
+        <v>0.07936742404276212</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04079364771959693</v>
+        <v>0.03244189946489432</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1174335521.277567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2651252741.049544</v>
+        <v>3334153393.740667</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09801451187348063</v>
+        <v>0.1148066728516176</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04453675466663307</v>
+        <v>0.05471876503837256</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1325626452.947568</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1064930842.492801</v>
+        <v>1261596077.798505</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1476858750809038</v>
+        <v>0.1418903606333125</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04065209170722695</v>
+        <v>0.04395469777148345</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>532465480.5041392</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3090529006.829487</v>
+        <v>3657519462.376534</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1394478947758716</v>
+        <v>0.1274578767208711</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03232054384395899</v>
+        <v>0.03264481662389288</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>109</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1545264532.580099</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1111553196.481113</v>
+        <v>1148394672.408478</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1190674981050753</v>
+        <v>0.1079315625714786</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02587260380164027</v>
+        <v>0.02662015178486198</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>555776636.5891858</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1301887775.61502</v>
+        <v>1400837243.773045</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1052834134571506</v>
+        <v>0.08854125905913401</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03913944842086838</v>
+        <v>0.03747088877888424</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>650943933.7956095</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3594331458.123693</v>
+        <v>3798404015.036857</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1239218811097215</v>
+        <v>0.1277885940238467</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02078961505296045</v>
+        <v>0.02518160074848089</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1797165759.354923</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3160043374.501004</v>
+        <v>2860931678.35474</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09247410949219284</v>
+        <v>0.09147790399402048</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04284227043495249</v>
+        <v>0.04755909673556562</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1580021712.369865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5362867719.269598</v>
+        <v>5104581402.293255</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09892175098325225</v>
+        <v>0.09887246997287916</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04022344799288385</v>
+        <v>0.03829957305657854</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>164</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2681433782.032118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2277968045.493438</v>
+        <v>2365513587.715159</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1090549605956698</v>
+        <v>0.09799947604701474</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0309035781998192</v>
+        <v>0.02892096435981226</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1138984091.860234</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1485590498.268071</v>
+        <v>1499667745.955723</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0820398882778893</v>
+        <v>0.0707492277985358</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03222249352913335</v>
+        <v>0.04418504614574896</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>742795133.3936437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1706711483.820442</v>
+        <v>1837468687.424769</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1094132053748029</v>
+        <v>0.1079018526957335</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03246578604134726</v>
+        <v>0.03212576942221142</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>853355853.0917954</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2044124033.021861</v>
+        <v>2421714147.690727</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1500079201114828</v>
+        <v>0.1665542654631012</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05861363174926287</v>
+        <v>0.0422305049940473</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>112</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1022062093.546074</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1448767495.619824</v>
+        <v>1261851775.081136</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1209435809656661</v>
+        <v>0.08750170442309452</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02181207514136847</v>
+        <v>0.02610729382514754</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>724383712.0824196</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1051200252.246855</v>
+        <v>1348800231.783837</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08933587184424224</v>
+        <v>0.07212441790628864</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04057893126514086</v>
+        <v>0.03164684495018787</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>525600133.4803367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2472293898.827878</v>
+        <v>2479687261.464375</v>
       </c>
       <c r="F36" t="n">
-        <v>0.109692553088325</v>
+        <v>0.1721057303421525</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02304473221854383</v>
+        <v>0.02004013853665883</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>94</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1236146973.624146</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2902255498.29107</v>
+        <v>2839524718.99362</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09836473278208691</v>
+        <v>0.1043197157423521</v>
       </c>
       <c r="G37" t="n">
-        <v>0.041422447320575</v>
+        <v>0.03994053192152916</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>99</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1451127900.553851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2136825553.972589</v>
+        <v>2111554501.562605</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07680414405542708</v>
+        <v>0.08968307737585471</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03992006627192632</v>
+        <v>0.0362812871110206</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1068412736.291835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1723539095.694594</v>
+        <v>1757056442.964406</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1228744684840882</v>
+        <v>0.1764396145406332</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02354843939431233</v>
+        <v>0.02367020707078389</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>861769584.3671665</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1102074048.889081</v>
+        <v>1507318951.935336</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1624934840961224</v>
+        <v>0.1194288360424434</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05890017208897837</v>
+        <v>0.03692159341454119</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>551037090.2681624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2666160916.464631</v>
+        <v>2568154120.16951</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1659558360308138</v>
+        <v>0.1570519358581329</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03969506507270001</v>
+        <v>0.03992271220406345</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>96</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1333080467.30108</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4039561773.159863</v>
+        <v>2791068973.434304</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09802603731232509</v>
+        <v>0.1234472516860897</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03957420647488672</v>
+        <v>0.03571428493581814</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2019780918.580615</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2776360981.674888</v>
+        <v>2820861968.878747</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1949565788232192</v>
+        <v>0.1844202679513713</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01680064882472666</v>
+        <v>0.0171848552256701</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>130</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1388180511.717857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1814804952.052256</v>
+        <v>1716275989.93519</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09630695747566749</v>
+        <v>0.09584227486094457</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02624617775789106</v>
+        <v>0.03375415381040975</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>907402545.4182369</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2152710220.836437</v>
+        <v>1815796361.557952</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1591067606228447</v>
+        <v>0.1850607765570831</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05088905610434981</v>
+        <v>0.05182729016487111</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1076355116.663277</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4639317696.231149</v>
+        <v>3630795955.691627</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1325199548698151</v>
+        <v>0.1087343765059275</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03880244731498862</v>
+        <v>0.05391894786206561</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>132</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2319658854.274058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5084346161.870139</v>
+        <v>5171414421.648168</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1475098958251664</v>
+        <v>0.145486508335319</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04961671720687619</v>
+        <v>0.03892244123514104</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>100</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2542173141.559566</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4662369030.660099</v>
+        <v>4222350011.5239</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08780160382513229</v>
+        <v>0.07263933146922319</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03171298084653358</v>
+        <v>0.03577176281124568</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>122</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2331184511.193109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1620438790.379726</v>
+        <v>1738540493.564682</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1602559405627991</v>
+        <v>0.1508251736783839</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03494965369097187</v>
+        <v>0.04094296610166562</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>810219408.5126572</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3016383033.449393</v>
+        <v>3568985383.967809</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1705127632472379</v>
+        <v>0.1197233794988568</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04608656285963567</v>
+        <v>0.0450353396425156</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>127</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1508191575.420644</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1524414792.695493</v>
+        <v>929118901.2423933</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1672473675521791</v>
+        <v>0.1640954460601926</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05047377038086792</v>
+        <v>0.04710365683649527</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>762207395.3343554</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4914232064.168275</v>
+        <v>3660455320.653523</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0844737936034375</v>
+        <v>0.1306673919893532</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04966684629553531</v>
+        <v>0.05823745467022378</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>153</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2457116034.772786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2945451037.730075</v>
+        <v>3419560526.366086</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1419644938497922</v>
+        <v>0.1475057680740256</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02906366329996699</v>
+        <v>0.02289631297741183</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>108</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1472725555.077699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3894596512.250186</v>
+        <v>3880987561.076455</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1188668763194289</v>
+        <v>0.1078885551241729</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04714654664177604</v>
+        <v>0.03357596648739457</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1947298311.931344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4978056344.2322</v>
+        <v>4020472417.182491</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1607889884266661</v>
+        <v>0.2101175054675769</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02355199279191755</v>
+        <v>0.03153232604094718</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>107</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2489028190.224993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1669883909.074468</v>
+        <v>1439799734.223268</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1425105113551934</v>
+        <v>0.1211880595137345</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03807270070322957</v>
+        <v>0.03769251242771107</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>834941971.6525458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3973622808.195</v>
+        <v>2866673788.258522</v>
       </c>
       <c r="F57" t="n">
-        <v>0.112966079997161</v>
+        <v>0.1765560811964351</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02239209127276129</v>
+        <v>0.0233445028004159</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>118</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1986811490.261877</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1703208272.129721</v>
+        <v>1732182210.523775</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2029772137014525</v>
+        <v>0.129544871221987</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03033038803325128</v>
+        <v>0.03058874394041008</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>851604148.6605754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4075621371.275493</v>
+        <v>5280588437.076001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1073217824544295</v>
+        <v>0.09814637919900077</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03469038311627277</v>
+        <v>0.03289855566204566</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>101</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2037810657.953537</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3745747265.556099</v>
+        <v>3222456897.291423</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1268963205428361</v>
+        <v>0.1819993041946473</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02828886122168657</v>
+        <v>0.0305824935981028</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>120</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1872873781.363423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2454232908.877749</v>
+        <v>2277143939.44192</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1485385702444483</v>
+        <v>0.1263927978187246</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03066628356812089</v>
+        <v>0.03245286819945803</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>128</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1227116486.382841</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1280989661.88469</v>
+        <v>1810133941.597318</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1925949429653473</v>
+        <v>0.1450881880047781</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03179655029977703</v>
+        <v>0.0370750945535312</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>640494781.126476</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4583597741.065205</v>
+        <v>3796862445.012781</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09505465740617286</v>
+        <v>0.09380178913349581</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02939893454909181</v>
+        <v>0.03189673553242075</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>107</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2291798906.875655</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5219773315.22496</v>
+        <v>4335675432.452307</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1326863303278876</v>
+        <v>0.1896314011162898</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02249512491047894</v>
+        <v>0.02722986301193405</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>116</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2609886779.269629</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4895497543.501117</v>
+        <v>4252977767.313404</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1305514473665732</v>
+        <v>0.1287723071268337</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02843158395446267</v>
+        <v>0.03120962058810892</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>133</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2447748736.906456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4313449380.06274</v>
+        <v>3605815083.557573</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1076196294717885</v>
+        <v>0.1470000227656388</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04455068755275456</v>
+        <v>0.04842891684456496</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>108</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2156724680.421182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2111929899.183601</v>
+        <v>2330065288.390664</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06914156266815867</v>
+        <v>0.09820231040977269</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03308161058698264</v>
+        <v>0.03177436607630177</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>119</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1055965043.025585</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4742029082.733401</v>
+        <v>5281407334.534668</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1326783309861287</v>
+        <v>0.1285491744606392</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04381944827651665</v>
+        <v>0.05105550845372357</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2371014582.14425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1760243055.991766</v>
+        <v>1713926465.632721</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1468410738499719</v>
+        <v>0.1461927213111469</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04341185909537577</v>
+        <v>0.04302441015674696</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>880121501.9501933</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3729613086.21659</v>
+        <v>2567210300.845315</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07856772801684911</v>
+        <v>0.07549390816010293</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03885526455277411</v>
+        <v>0.04491193878275185</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>106</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1864806567.570273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3440986765.626108</v>
+        <v>4876555548.080702</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1850989487240045</v>
+        <v>0.1532875604906314</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03045912511443163</v>
+        <v>0.02121740870761311</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>136</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1720493372.179542</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1548953112.876631</v>
+        <v>2260255364.067139</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09046591476697642</v>
+        <v>0.06722944833808624</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04045993569438688</v>
+        <v>0.04175190720336857</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>774476575.5553384</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3047645570.123351</v>
+        <v>3478545289.035143</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07546912310152565</v>
+        <v>0.0793987041523125</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0455759035254424</v>
+        <v>0.05208096267137105</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>142</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1523822776.700774</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3899337184.728517</v>
+        <v>3544888442.601727</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1371505018805848</v>
+        <v>0.1809108539593912</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02754673392050172</v>
+        <v>0.02775424332088696</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>127</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1949668580.045866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1999581163.848242</v>
+        <v>2497104274.223435</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1026463037618902</v>
+        <v>0.1592795020443586</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02402194938034222</v>
+        <v>0.03271662719240944</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>999790546.1592637</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3549831080.656681</v>
+        <v>3552526372.683935</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1030150430006215</v>
+        <v>0.07571525991933784</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02996495811034983</v>
+        <v>0.02583898306246357</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1774915506.182104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1662156124.368076</v>
+        <v>1554168613.441476</v>
       </c>
       <c r="F77" t="n">
-        <v>0.184349229746774</v>
+        <v>0.1715485090409117</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02060770542656656</v>
+        <v>0.02139915982748334</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>831078073.8568214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3573042649.305449</v>
+        <v>3521754615.828059</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1017955324834873</v>
+        <v>0.09304176485453877</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03477820887444885</v>
+        <v>0.05451551211980053</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>129</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1786521320.95669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1697928176.965694</v>
+        <v>1675759404.643919</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1738565936940696</v>
+        <v>0.1752125070782861</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03201445305657612</v>
+        <v>0.0393222846525606</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>848964157.3349627</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4925589156.609902</v>
+        <v>4387623431.748289</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08758569086303737</v>
+        <v>0.0940155096865317</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02914909937911124</v>
+        <v>0.03208942496363749</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>79</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2462794623.837154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3398884428.398244</v>
+        <v>4711792558.819366</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08352979577445932</v>
+        <v>0.09985817258055267</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0304064112938753</v>
+        <v>0.02512496220044774</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1699442155.084541</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4959266095.657092</v>
+        <v>3889598807.24294</v>
       </c>
       <c r="F82" t="n">
-        <v>0.180073906758582</v>
+        <v>0.1768644730396897</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01960783688468838</v>
+        <v>0.02946598573015082</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>130</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2479633034.040608</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2485255837.18391</v>
+        <v>2059315436.433957</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1577610133126523</v>
+        <v>0.1416008044028541</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03822550077028723</v>
+        <v>0.03815019216437414</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1242627964.312139</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2222969327.559644</v>
+        <v>2540064664.605299</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08914725884543703</v>
+        <v>0.108536691101302</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05220483523026258</v>
+        <v>0.05157697581658156</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1111484636.131826</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3086410548.970509</v>
+        <v>2358816050.645245</v>
       </c>
       <c r="F85" t="n">
-        <v>0.173661996394926</v>
+        <v>0.1629700851389417</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03776333712854198</v>
+        <v>0.05258623479873422</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>140</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1543205344.168025</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2277155203.74364</v>
+        <v>2540197831.286532</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1439551223389717</v>
+        <v>0.1068915329299745</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02305597045471629</v>
+        <v>0.02317972377582352</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1138577668.035723</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>971416505.0156795</v>
+        <v>1403707918.186098</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1479680484274074</v>
+        <v>0.1728745828208608</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03411110787231817</v>
+        <v>0.03125086320155555</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>485708249.5115412</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2955164718.416655</v>
+        <v>2890826016.984918</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1714065682072013</v>
+        <v>0.1278057173747377</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03777746647787335</v>
+        <v>0.03609709463376073</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>148</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1477582385.231043</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2946217940.171984</v>
+        <v>2700598540.619819</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1114069997958935</v>
+        <v>0.1601248839027538</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03046232371791929</v>
+        <v>0.03277290523656186</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>125</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1473109012.163445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2068956642.160435</v>
+        <v>1608322260.752408</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0984792638030581</v>
+        <v>0.0984559411396308</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04057045732238812</v>
+        <v>0.05504904824992873</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1034478403.956601</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1409419904.580781</v>
+        <v>1867952703.788326</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1262253106144763</v>
+        <v>0.1722515816846727</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05115082290429923</v>
+        <v>0.05001131372730896</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>704710003.2772701</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2551684244.200511</v>
+        <v>2261654494.407995</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08008968871048999</v>
+        <v>0.09085580398179011</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03231374134795057</v>
+        <v>0.04165893234552118</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>105</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1275842109.947592</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4891570541.850936</v>
+        <v>3836914274.82763</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1287988926710524</v>
+        <v>0.09319461002533143</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0400456388242019</v>
+        <v>0.05283090993567798</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2445785213.885393</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2426105779.684446</v>
+        <v>2096709247.525712</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1135956054058833</v>
+        <v>0.1620398369629069</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04239265372331615</v>
+        <v>0.03183402811075278</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1213052943.63787</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2269708668.714726</v>
+        <v>2808981443.775905</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1229117606853644</v>
+        <v>0.09885567057641628</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03675850933942906</v>
+        <v>0.03674145433903329</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1134854387.197514</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2171059274.33896</v>
+        <v>2150945697.474712</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08865517255186856</v>
+        <v>0.1383579533149019</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03310647639125559</v>
+        <v>0.04007291017831417</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1085529605.916854</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5261128280.962961</v>
+        <v>3250869716.496359</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1732932565973702</v>
+        <v>0.1197711244823011</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02479673021613552</v>
+        <v>0.02060863919446131</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>119</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2630564298.28947</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2955748858.725092</v>
+        <v>3162811961.490499</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08152365933679756</v>
+        <v>0.1201697782511709</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03174091870648629</v>
+        <v>0.02648740384407026</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>99</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1477874411.099867</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2824872430.231171</v>
+        <v>2290276803.72734</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1383920484235026</v>
+        <v>0.1333228833309816</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03457516384917538</v>
+        <v>0.03025339305431205</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>117</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1412436188.375612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2939004829.710841</v>
+        <v>3699935905.538435</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1285308637729742</v>
+        <v>0.1755226614947887</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0197526944389335</v>
+        <v>0.02624838324791653</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>113</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1469502400.83827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2919332616.40461</v>
+        <v>3037191441.379482</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1879778856248157</v>
+        <v>0.2182150122560137</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03682712483829467</v>
+        <v>0.03680139026480104</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>152</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1459666386.652766</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_373.xlsx
+++ b/output/fit_clients/fit_round_373.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2243985550.859684</v>
+        <v>1947353863.494225</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1014380158149829</v>
+        <v>0.07171550148016438</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03415195112055663</v>
+        <v>0.03420414152765274</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1844957631.655052</v>
+        <v>2574518562.794944</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1288796304908661</v>
+        <v>0.1133929772694612</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03723922039779218</v>
+        <v>0.04832549740262813</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3701257209.544306</v>
+        <v>3270069532.88318</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1626853887178026</v>
+        <v>0.120678064275393</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03700846000797555</v>
+        <v>0.02960052282811929</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3029666582.975957</v>
+        <v>3091392270.747825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09851608695149729</v>
+        <v>0.07288298808018949</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03476840094004828</v>
+        <v>0.04759764343506114</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2118395628.825168</v>
+        <v>2239557883.021147</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1020214602358798</v>
+        <v>0.1278651002503505</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05254171582112242</v>
+        <v>0.05050953750044634</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2558975905.401677</v>
+        <v>1910560255.176522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1008815584002594</v>
+        <v>0.06622415415718803</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04152885592314901</v>
+        <v>0.04877218813650849</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3042997732.305726</v>
+        <v>3856528237.838477</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1615475542125655</v>
+        <v>0.1818944994561018</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03065162562072105</v>
+        <v>0.03333060162778113</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1751822439.376619</v>
+        <v>2274652046.466735</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1623540156666494</v>
+        <v>0.1702239878428871</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02838581289546196</v>
+        <v>0.03391895244613678</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4175320318.864655</v>
+        <v>4197708645.083231</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1671417445925621</v>
+        <v>0.2165923957955398</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04806459998980327</v>
+        <v>0.0505408380875857</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3563267475.821865</v>
+        <v>3781576716.641275</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1270000284205881</v>
+        <v>0.1240324636473817</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04168284723349568</v>
+        <v>0.04561050497040098</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2469491032.486026</v>
+        <v>2560002844.822089</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1209727594283458</v>
+        <v>0.1590528042482527</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05367371790322777</v>
+        <v>0.0479751345752928</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5071910276.756712</v>
+        <v>4094839660.810891</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09316143068454151</v>
+        <v>0.07107093968686207</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01960153899351941</v>
+        <v>0.02401484588955254</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2581448910.289889</v>
+        <v>2633119025.832674</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1697587259033476</v>
+        <v>0.1737777357735349</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03190646301016586</v>
+        <v>0.03318516475491239</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1730241072.107081</v>
+        <v>1254785363.866975</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08693979018439903</v>
+        <v>0.0874378800885338</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03340913277222669</v>
+        <v>0.02988063929809203</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2125614692.46021</v>
+        <v>2695935653.073989</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07988325852224062</v>
+        <v>0.08683378639026822</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04191895578447007</v>
+        <v>0.04857939515503444</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3391517703.843372</v>
+        <v>5255674545.783173</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1271422316914635</v>
+        <v>0.1482445533007218</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04630530739683088</v>
+        <v>0.04762720561634615</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3197746573.891033</v>
+        <v>3954037220.864765</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1492497807038702</v>
+        <v>0.1119612822079507</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02588636328603037</v>
+        <v>0.02739898082478219</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1311712431.521446</v>
+        <v>1373562702.709745</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1428249182176747</v>
+        <v>0.1711087773596218</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02286318270398336</v>
+        <v>0.01757225069806781</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2669903656.51883</v>
+        <v>2195525471.887146</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1171388419619706</v>
+        <v>0.1608262573764372</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02249808202966234</v>
+        <v>0.02453175648622152</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1720110186.570867</v>
+        <v>2341651565.982158</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07936742404276212</v>
+        <v>0.1014792390062408</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03244189946489432</v>
+        <v>0.03715492077197541</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3334153393.740667</v>
+        <v>3114131020.816526</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1148066728516176</v>
+        <v>0.1231637774917809</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05471876503837256</v>
+        <v>0.05006344605480716</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1261596077.798505</v>
+        <v>1167206558.895813</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1418903606333125</v>
+        <v>0.1343427428292332</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04395469777148345</v>
+        <v>0.05455923533748062</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3657519462.376534</v>
+        <v>3642434909.801637</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1274578767208711</v>
+        <v>0.1246430718647057</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03264481662389288</v>
+        <v>0.03527652213223249</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1148394672.408478</v>
+        <v>1441123186.160793</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1079315625714786</v>
+        <v>0.07582650130907578</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02662015178486198</v>
+        <v>0.02932126862208217</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1400837243.773045</v>
+        <v>941749807.2363092</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08854125905913401</v>
+        <v>0.1104458675594496</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03747088877888424</v>
+        <v>0.02958219486491001</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3798404015.036857</v>
+        <v>2913689182.439922</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1277885940238467</v>
+        <v>0.1306730395597172</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02518160074848089</v>
+        <v>0.02557069441039121</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2860931678.35474</v>
+        <v>3058242321.361626</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09147790399402048</v>
+        <v>0.09653267299555629</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04755909673556562</v>
+        <v>0.04795743574036809</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5104581402.293255</v>
+        <v>5783189559.136948</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09887246997287916</v>
+        <v>0.1375278473364452</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03829957305657854</v>
+        <v>0.04662026744429317</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2365513587.715159</v>
+        <v>1734087984.28266</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09799947604701474</v>
+        <v>0.09008302205056105</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02892096435981226</v>
+        <v>0.03907728222898772</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1499667745.955723</v>
+        <v>1034911239.795924</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0707492277985358</v>
+        <v>0.09198351834906138</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04418504614574896</v>
+        <v>0.04404969039953797</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1837468687.424769</v>
+        <v>1902554396.204242</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1079018526957335</v>
+        <v>0.1197453763080139</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03212576942221142</v>
+        <v>0.02754784721231321</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2421714147.690727</v>
+        <v>2975609476.344061</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1665542654631012</v>
+        <v>0.1632479562308243</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0422305049940473</v>
+        <v>0.05275836485963119</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1261851775.081136</v>
+        <v>1088369001.051016</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08750170442309452</v>
+        <v>0.09566920890104699</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02610729382514754</v>
+        <v>0.01782934886170289</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1348800231.783837</v>
+        <v>1337645510.861609</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07212441790628864</v>
+        <v>0.1182714507720798</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03164684495018787</v>
+        <v>0.03434508500303005</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2479687261.464375</v>
+        <v>3122735578.076907</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1721057303421525</v>
+        <v>0.1349454619941688</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02004013853665883</v>
+        <v>0.02296479158071119</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2839524718.99362</v>
+        <v>2754078374.727817</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1043197157423521</v>
+        <v>0.1003904435240777</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03994053192152916</v>
+        <v>0.02960985897394273</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2111554501.562605</v>
+        <v>2113272318.890473</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08968307737585471</v>
+        <v>0.07614999753384323</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0362812871110206</v>
+        <v>0.03304446274632857</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1757056442.964406</v>
+        <v>2189880583.351056</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1764396145406332</v>
+        <v>0.1295792237749628</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02367020707078389</v>
+        <v>0.02972714631425897</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1507318951.935336</v>
+        <v>1763153096.597455</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1194288360424434</v>
+        <v>0.1419852594484981</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03692159341454119</v>
+        <v>0.05024497738204284</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2568154120.16951</v>
+        <v>2640171539.449492</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1570519358581329</v>
+        <v>0.1407529215696125</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03992271220406345</v>
+        <v>0.03916861321342455</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2791068973.434304</v>
+        <v>4219227157.932405</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1234472516860897</v>
+        <v>0.08455805328945501</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03571428493581814</v>
+        <v>0.04050638835250795</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2820861968.878747</v>
+        <v>2072779574.834898</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1844202679513713</v>
+        <v>0.2031792611202217</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0171848552256701</v>
+        <v>0.02362957915257711</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1716275989.93519</v>
+        <v>1434661896.826746</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09584227486094457</v>
+        <v>0.06332524907181064</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03375415381040975</v>
+        <v>0.02682805877971926</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1815796361.557952</v>
+        <v>1779745819.120637</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1850607765570831</v>
+        <v>0.1206197256524375</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05182729016487111</v>
+        <v>0.04698002193057928</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3630795955.691627</v>
+        <v>5642850348.176692</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1087343765059275</v>
+        <v>0.1441371558353767</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05391894786206561</v>
+        <v>0.0435445324650374</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5171414421.648168</v>
+        <v>3661148307.974349</v>
       </c>
       <c r="F47" t="n">
-        <v>0.145486508335319</v>
+        <v>0.1233703838555649</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03892244123514104</v>
+        <v>0.05134234163636101</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4222350011.5239</v>
+        <v>3298326699.455818</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07263933146922319</v>
+        <v>0.06906012528907969</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03577176281124568</v>
+        <v>0.03321723786140101</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1738540493.564682</v>
+        <v>1239022475.989143</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1508251736783839</v>
+        <v>0.158087235270072</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04094296610166562</v>
+        <v>0.02746881498215984</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3568985383.967809</v>
+        <v>3511634199.201923</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1197233794988568</v>
+        <v>0.1452800031508649</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0450353396425156</v>
+        <v>0.04636603767285485</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>929118901.2423933</v>
+        <v>1015457584.233473</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1640954460601926</v>
+        <v>0.1482067880148009</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04710365683649527</v>
+        <v>0.04762487829320931</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3660455320.653523</v>
+        <v>5058994957.628772</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1306673919893532</v>
+        <v>0.1225449934898773</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05823745467022378</v>
+        <v>0.04991515843095112</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3419560526.366086</v>
+        <v>3167416047.084736</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1475057680740256</v>
+        <v>0.1292299432978835</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02289631297741183</v>
+        <v>0.03540587132458424</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3880987561.076455</v>
+        <v>4270565354.665814</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1078885551241729</v>
+        <v>0.1357867781773449</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03357596648739457</v>
+        <v>0.0442023080837247</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4020472417.182491</v>
+        <v>4887636698.338247</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2101175054675769</v>
+        <v>0.1355135796367634</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03153232604094718</v>
+        <v>0.02299723225386862</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1439799734.223268</v>
+        <v>1651227527.099036</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1211880595137345</v>
+        <v>0.1163472099013801</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03769251242771107</v>
+        <v>0.03758434623637139</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2866673788.258522</v>
+        <v>3007193917.026954</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1765560811964351</v>
+        <v>0.158396143993806</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0233445028004159</v>
+        <v>0.02391895814260173</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1732182210.523775</v>
+        <v>1190643175.495512</v>
       </c>
       <c r="F58" t="n">
-        <v>0.129544871221987</v>
+        <v>0.1467211560314953</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03058874394041008</v>
+        <v>0.02553644448745132</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5280588437.076001</v>
+        <v>4278138715.783701</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09814637919900077</v>
+        <v>0.1150652837271472</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03289855566204566</v>
+        <v>0.03426342779041121</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3222456897.291423</v>
+        <v>3750494706.222553</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1819993041946473</v>
+        <v>0.201770283496272</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0305824935981028</v>
+        <v>0.02637192336424103</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2277143939.44192</v>
+        <v>2444397304.437655</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1263927978187246</v>
+        <v>0.1308811657393384</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03245286819945803</v>
+        <v>0.03243980076874781</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1810133941.597318</v>
+        <v>1284955536.610787</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1450881880047781</v>
+        <v>0.18333825464895</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0370750945535312</v>
+        <v>0.03027219807587801</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3796862445.012781</v>
+        <v>3936319014.598472</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09380178913349581</v>
+        <v>0.09392890163251741</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03189673553242075</v>
+        <v>0.04457017368503433</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4335675432.452307</v>
+        <v>4321386651.328986</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1896314011162898</v>
+        <v>0.1158311286301655</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02722986301193405</v>
+        <v>0.02607601896544099</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4252977767.313404</v>
+        <v>5371446213.443213</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1287723071268337</v>
+        <v>0.1096793327177897</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03120962058810892</v>
+        <v>0.02932703284309054</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3605815083.557573</v>
+        <v>5310047267.726677</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1470000227656388</v>
+        <v>0.1539788729355418</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04842891684456496</v>
+        <v>0.03254221595108685</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2330065288.390664</v>
+        <v>2355905480.331273</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09820231040977269</v>
+        <v>0.08054698970327544</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03177436607630177</v>
+        <v>0.04879603075713794</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5281407334.534668</v>
+        <v>3820369544.19368</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1285491744606392</v>
+        <v>0.1014797752907533</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05105550845372357</v>
+        <v>0.04541195329724361</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1713926465.632721</v>
+        <v>2222582417.917771</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1461927213111469</v>
+        <v>0.1749420816305608</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04302441015674696</v>
+        <v>0.05140452437507848</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2567210300.845315</v>
+        <v>3489165533.234829</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07549390816010293</v>
+        <v>0.07851907219854926</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04491193878275185</v>
+        <v>0.03003116775014151</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4876555548.080702</v>
+        <v>3457789251.776533</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1532875604906314</v>
+        <v>0.1435981130184273</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02121740870761311</v>
+        <v>0.02786400132822413</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2260255364.067139</v>
+        <v>2097673741.701611</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06722944833808624</v>
+        <v>0.06653119135644288</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04175190720336857</v>
+        <v>0.04761910157731031</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3478545289.035143</v>
+        <v>2534756050.169989</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0793987041523125</v>
+        <v>0.07931381340497971</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05208096267137105</v>
+        <v>0.04821139940388198</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3544888442.601727</v>
+        <v>2908277266.981651</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1809108539593912</v>
+        <v>0.1707293193541545</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02775424332088696</v>
+        <v>0.02734914657719205</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2497104274.223435</v>
+        <v>2090828227.938434</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1592795020443586</v>
+        <v>0.1181777286562078</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03271662719240944</v>
+        <v>0.03701518170133692</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3552526372.683935</v>
+        <v>3310672721.969291</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07571525991933784</v>
+        <v>0.1101969174746166</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02583898306246357</v>
+        <v>0.0255095785627378</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1554168613.441476</v>
+        <v>1772052318.423198</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1715485090409117</v>
+        <v>0.1162192974979769</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02139915982748334</v>
+        <v>0.03125605744250542</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3521754615.828059</v>
+        <v>3960486147.206397</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09304176485453877</v>
+        <v>0.1147880655189188</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05451551211980053</v>
+        <v>0.0522922057871019</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1675759404.643919</v>
+        <v>1293276458.699846</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1752125070782861</v>
+        <v>0.1372455454282527</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0393222846525606</v>
+        <v>0.03593801646077962</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4387623431.748289</v>
+        <v>3405854729.597577</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0940155096865317</v>
+        <v>0.06842118121905805</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03208942496363749</v>
+        <v>0.02938216893748754</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4711792558.819366</v>
+        <v>4080806219.63608</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09985817258055267</v>
+        <v>0.1360367777820052</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02512496220044774</v>
+        <v>0.02973691219660519</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3889598807.24294</v>
+        <v>4920472728.371403</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1768644730396897</v>
+        <v>0.1495903161246079</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02946598573015082</v>
+        <v>0.02519752296379518</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2059315436.433957</v>
+        <v>2243448666.588454</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1416008044028541</v>
+        <v>0.09687568402411514</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03815019216437414</v>
+        <v>0.03006331057782586</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2540064664.605299</v>
+        <v>2038710248.097199</v>
       </c>
       <c r="F84" t="n">
-        <v>0.108536691101302</v>
+        <v>0.1114325777316451</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05157697581658156</v>
+        <v>0.04005952373471377</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2358816050.645245</v>
+        <v>2475838370.892119</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1629700851389417</v>
+        <v>0.1595381658536196</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05258623479873422</v>
+        <v>0.05062270007954644</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2540197831.286532</v>
+        <v>2133858488.696408</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1068915329299745</v>
+        <v>0.1379773586077244</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02317972377582352</v>
+        <v>0.02626268476363717</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1403707918.186098</v>
+        <v>1445184603.131923</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1728745828208608</v>
+        <v>0.1688277257396429</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03125086320155555</v>
+        <v>0.04328519908838083</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2890826016.984918</v>
+        <v>3506459171.993554</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1278057173747377</v>
+        <v>0.1778367678012444</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03609709463376073</v>
+        <v>0.02840429785404024</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2700598540.619819</v>
+        <v>2698250808.91</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1601248839027538</v>
+        <v>0.1466920339885838</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03277290523656186</v>
+        <v>0.03317596199542885</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1608322260.752408</v>
+        <v>1943012239.462403</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0984559411396308</v>
+        <v>0.09316243763822715</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05504904824992873</v>
+        <v>0.04544571986127166</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1867952703.788326</v>
+        <v>1308093144.973528</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1722515816846727</v>
+        <v>0.1574784220138958</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05001131372730896</v>
+        <v>0.0456326067784751</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2261654494.407995</v>
+        <v>2850642818.610441</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09085580398179011</v>
+        <v>0.07473243544013998</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04165893234552118</v>
+        <v>0.04601694972975516</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3836914274.82763</v>
+        <v>3079199766.340348</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09319461002533143</v>
+        <v>0.1009864805512431</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05283090993567798</v>
+        <v>0.04523222880461145</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2096709247.525712</v>
+        <v>2073820788.233277</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1620398369629069</v>
+        <v>0.1481356338135446</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03183402811075278</v>
+        <v>0.03906937396398477</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2808981443.775905</v>
+        <v>2178151642.068358</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09885567057641628</v>
+        <v>0.1373414822299149</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03674145433903329</v>
+        <v>0.03528961982895745</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2150945697.474712</v>
+        <v>1823776952.652523</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1383579533149019</v>
+        <v>0.09261244916069079</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04007291017831417</v>
+        <v>0.03650688510543006</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3250869716.496359</v>
+        <v>4204037564.993125</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1197711244823011</v>
+        <v>0.1747846421838735</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02060863919446131</v>
+        <v>0.02468983103262151</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3162811961.490499</v>
+        <v>3215560512.105843</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1201697782511709</v>
+        <v>0.0892254872069274</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02648740384407026</v>
+        <v>0.03147849006738542</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2290276803.72734</v>
+        <v>2153717351.905914</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1333228833309816</v>
+        <v>0.09577715131529034</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03025339305431205</v>
+        <v>0.02236273331638267</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3699935905.538435</v>
+        <v>3442591170.831648</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1755226614947887</v>
+        <v>0.1184171569243674</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02624838324791653</v>
+        <v>0.01934663920266556</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3037191441.379482</v>
+        <v>3086703105.314716</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2182150122560137</v>
+        <v>0.2207983316488617</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03680139026480104</v>
+        <v>0.04466209917588546</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_373.xlsx
+++ b/output/fit_clients/fit_round_373.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1947353863.494225</v>
+        <v>1634227666.203484</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07171550148016438</v>
+        <v>0.08952607768636578</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03420414152765274</v>
+        <v>0.02756791261371623</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2574518562.794944</v>
+        <v>2542693339.041192</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1133929772694612</v>
+        <v>0.1659884208525065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04832549740262813</v>
+        <v>0.04967508683516239</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3270069532.88318</v>
+        <v>4874259602.978758</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120678064275393</v>
+        <v>0.1499470993554749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02960052282811929</v>
+        <v>0.02565558367413299</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>192</v>
+      </c>
+      <c r="J4" t="n">
+        <v>372</v>
+      </c>
+      <c r="K4" t="n">
+        <v>55.77048723944959</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3091392270.747825</v>
+        <v>2827627869.932369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07288298808018949</v>
+        <v>0.09332586020771517</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04759764343506114</v>
+        <v>0.03555796957917431</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>150</v>
+      </c>
+      <c r="J5" t="n">
+        <v>372</v>
+      </c>
+      <c r="K5" t="n">
+        <v>43.75100843861811</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2239557883.021147</v>
+        <v>2784773425.220335</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1278651002503505</v>
+        <v>0.1233539225714233</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05050953750044634</v>
+        <v>0.05054450256663102</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1910560255.176522</v>
+        <v>2844528666.865152</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06622415415718803</v>
+        <v>0.07538896646733211</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04877218813650849</v>
+        <v>0.04381333394258775</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3856528237.838477</v>
+        <v>2528683728.871803</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1818944994561018</v>
+        <v>0.2176979073485677</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03333060162778113</v>
+        <v>0.02449913066029789</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>371</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2274652046.466735</v>
+        <v>1425406304.190672</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1702239878428871</v>
+        <v>0.1341097770528632</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03391895244613678</v>
+        <v>0.02365544990732266</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4197708645.083231</v>
+        <v>4904719564.697307</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2165923957955398</v>
+        <v>0.1579264957362672</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0505408380875857</v>
+        <v>0.03434494496300265</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>308</v>
+      </c>
+      <c r="J10" t="n">
+        <v>373</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3781576716.641275</v>
+        <v>4026768000.080618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1240324636473817</v>
+        <v>0.1555559440388291</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04561050497040098</v>
+        <v>0.04989645005552162</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>155</v>
+      </c>
+      <c r="J11" t="n">
+        <v>373</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66.78877046434657</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2560002844.822089</v>
+        <v>2803027986.668888</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1590528042482527</v>
+        <v>0.1740332524268837</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0479751345752928</v>
+        <v>0.05123509001670796</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4094839660.810891</v>
+        <v>4494756909.866957</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07107093968686207</v>
+        <v>0.06965639767993971</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02401484588955254</v>
+        <v>0.02588132967320913</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>194</v>
+      </c>
+      <c r="J13" t="n">
+        <v>372</v>
+      </c>
+      <c r="K13" t="n">
+        <v>56.48520140042107</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2633119025.832674</v>
+        <v>3843436187.763737</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1737777357735349</v>
+        <v>0.172343127780429</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03318516475491239</v>
+        <v>0.02978862918498796</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>77</v>
+      </c>
+      <c r="J14" t="n">
+        <v>373</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1254785363.866975</v>
+        <v>1337218615.034092</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0874378800885338</v>
+        <v>0.0880059574159216</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02988063929809203</v>
+        <v>0.03724269366016583</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2695935653.073989</v>
+        <v>2217899343.299073</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08683378639026822</v>
+        <v>0.08356503291307391</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04857939515503444</v>
+        <v>0.05035081322925768</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5255674545.783173</v>
+        <v>4528662358.392586</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1482445533007218</v>
+        <v>0.1701036753281612</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04762720561634615</v>
+        <v>0.04788511052474884</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>176</v>
+      </c>
+      <c r="J17" t="n">
+        <v>373</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3954037220.864765</v>
+        <v>2834620732.572998</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1119612822079507</v>
+        <v>0.1118335242717454</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02739898082478219</v>
+        <v>0.03323996744354125</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>92</v>
+      </c>
+      <c r="J18" t="n">
+        <v>372</v>
+      </c>
+      <c r="K18" t="n">
+        <v>43.35927954024646</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1373562702.709745</v>
+        <v>1265832236.123909</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1711087773596218</v>
+        <v>0.1641041298259502</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01757225069806781</v>
+        <v>0.01967742258891182</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2195525471.887146</v>
+        <v>2569983029.597741</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1608262573764372</v>
+        <v>0.1143391156058262</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02453175648622152</v>
+        <v>0.02110939339824413</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2341651565.982158</v>
+        <v>1971946840.940902</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1014792390062408</v>
+        <v>0.1020331314034885</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03715492077197541</v>
+        <v>0.03279419814191516</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3114131020.816526</v>
+        <v>3421716291.650668</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1231637774917809</v>
+        <v>0.1048897128761899</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05006344605480716</v>
+        <v>0.03549485050721241</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>105</v>
+      </c>
+      <c r="J22" t="n">
+        <v>370</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1167206558.895813</v>
+        <v>1363274475.253458</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1343427428292332</v>
+        <v>0.1451993533345063</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05455923533748062</v>
+        <v>0.05438390836262959</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3642434909.801637</v>
+        <v>3471145961.093119</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1246430718647057</v>
+        <v>0.1023633965532678</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03527652213223249</v>
+        <v>0.03079777257891555</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>115</v>
+      </c>
+      <c r="J24" t="n">
+        <v>371</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1441123186.160793</v>
+        <v>1410552332.577688</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07582650130907578</v>
+        <v>0.08692080656417861</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02932126862208217</v>
+        <v>0.02366001782741047</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>941749807.2363092</v>
+        <v>971963203.7210615</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1104458675594496</v>
+        <v>0.1046493588252244</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02958219486491001</v>
+        <v>0.02442963242123095</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2913689182.439922</v>
+        <v>3413840584.354918</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1306730395597172</v>
+        <v>0.1489639261111956</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02557069441039121</v>
+        <v>0.01810807109822091</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>156</v>
+      </c>
+      <c r="J27" t="n">
+        <v>371</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3058242321.361626</v>
+        <v>3763028792.804307</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09653267299555629</v>
+        <v>0.1430971820254417</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04795743574036809</v>
+        <v>0.03110276347534427</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>373</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5783189559.136948</v>
+        <v>4670036755.341423</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1375278473364452</v>
+        <v>0.139482727926949</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04662026744429317</v>
+        <v>0.04633178803015394</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>325</v>
+      </c>
+      <c r="J29" t="n">
+        <v>372</v>
+      </c>
+      <c r="K29" t="n">
+        <v>54.36965067166442</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1734087984.28266</v>
+        <v>1668790447.712357</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09008302205056105</v>
+        <v>0.1094018117428093</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03907728222898772</v>
+        <v>0.03882946398744796</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1034911239.795924</v>
+        <v>1419360495.779377</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09198351834906138</v>
+        <v>0.08257166857216354</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04404969039953797</v>
+        <v>0.03706684938003823</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1902554396.204242</v>
+        <v>1563983325.210113</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1197453763080139</v>
+        <v>0.0831101279031541</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02754784721231321</v>
+        <v>0.03777946023119921</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2975609476.344061</v>
+        <v>2886831930.509943</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1632479562308243</v>
+        <v>0.2058386173664624</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05275836485963119</v>
+        <v>0.0593351159115637</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1088369001.051016</v>
+        <v>1169297796.997624</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09566920890104699</v>
+        <v>0.1070777514739515</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01782934886170289</v>
+        <v>0.02501422176013591</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1337645510.861609</v>
+        <v>1154855109.722229</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1182714507720798</v>
+        <v>0.1146760791198076</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03434508500303005</v>
+        <v>0.04135604869762364</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3122735578.076907</v>
+        <v>2093327475.131996</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1349454619941688</v>
+        <v>0.1810507025487059</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02296479158071119</v>
+        <v>0.02800433595627371</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2754078374.727817</v>
+        <v>2767537129.646266</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1003904435240777</v>
+        <v>0.1082177149687676</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02960985897394273</v>
+        <v>0.02631639449367765</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2113272318.890473</v>
+        <v>1352208776.664634</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07614999753384323</v>
+        <v>0.1222709732168663</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03304446274632857</v>
+        <v>0.03594901133359046</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2189880583.351056</v>
+        <v>2061179700.109934</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1295792237749628</v>
+        <v>0.1613948848330417</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02972714631425897</v>
+        <v>0.02472334822524956</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1763153096.597455</v>
+        <v>1606863434.947848</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1419852594484981</v>
+        <v>0.1255805513353511</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05024497738204284</v>
+        <v>0.0436534565889389</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2640171539.449492</v>
+        <v>2198742938.944483</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1407529215696125</v>
+        <v>0.1196759728393325</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03916861321342455</v>
+        <v>0.04353236884912661</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4219227157.932405</v>
+        <v>2809996043.7463</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08455805328945501</v>
+        <v>0.1206354922359522</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04050638835250795</v>
+        <v>0.03095968376350782</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>164</v>
+      </c>
+      <c r="J42" t="n">
+        <v>367</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2072779574.834898</v>
+        <v>2782891663.96136</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2031792611202217</v>
+        <v>0.1588366718865893</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02362957915257711</v>
+        <v>0.02305214662384008</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1434661896.826746</v>
+        <v>2299692279.927895</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06332524907181064</v>
+        <v>0.06855467131681281</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02682805877971926</v>
+        <v>0.03445260440936539</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1779745819.120637</v>
+        <v>2531421514.188235</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1206197256524375</v>
+        <v>0.1802034119075821</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04698002193057928</v>
+        <v>0.03596399888157701</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5642850348.176692</v>
+        <v>4999662785.740226</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1441371558353767</v>
+        <v>0.1144731902821487</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0435445324650374</v>
+        <v>0.05172565282695262</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>223</v>
+      </c>
+      <c r="J46" t="n">
+        <v>372</v>
+      </c>
+      <c r="K46" t="n">
+        <v>55.87190167801293</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3661148307.974349</v>
+        <v>4207874289.378184</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1233703838555649</v>
+        <v>0.1668904064832238</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05134234163636101</v>
+        <v>0.05668967087660349</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>166</v>
+      </c>
+      <c r="J47" t="n">
+        <v>373</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2125,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3298326699.455818</v>
+        <v>4386625327.98039</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06906012528907969</v>
+        <v>0.07813634464731189</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03321723786140101</v>
+        <v>0.03010089308685534</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>193</v>
+      </c>
+      <c r="J48" t="n">
+        <v>373</v>
+      </c>
+      <c r="K48" t="n">
+        <v>56.69135533186701</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1239022475.989143</v>
+        <v>1246132719.795028</v>
       </c>
       <c r="F49" t="n">
-        <v>0.158087235270072</v>
+        <v>0.1569651517791888</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02746881498215984</v>
+        <v>0.04430817044140688</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2197,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3511634199.201923</v>
+        <v>2593379448.156323</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1452800031508649</v>
+        <v>0.1739676958670023</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04636603767285485</v>
+        <v>0.0399505423225912</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>125</v>
+      </c>
+      <c r="J50" t="n">
+        <v>372</v>
+      </c>
+      <c r="K50" t="n">
+        <v>32.82617859577181</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1015457584.233473</v>
+        <v>1347147642.474951</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1482067880148009</v>
+        <v>0.1238961964944807</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04762487829320931</v>
+        <v>0.04102242758628947</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5058994957.628772</v>
+        <v>4556041432.316518</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1225449934898773</v>
+        <v>0.09052060221930755</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04991515843095112</v>
+        <v>0.05745903247899661</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>219</v>
+      </c>
+      <c r="J52" t="n">
+        <v>373</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3167416047.084736</v>
+        <v>2819274810.700497</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1292299432978835</v>
+        <v>0.1554997645857346</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03540587132458424</v>
+        <v>0.02915470141500372</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4270565354.665814</v>
+        <v>3658875519.762978</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1357867781773449</v>
+        <v>0.1374232678270901</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0442023080837247</v>
+        <v>0.04558776350990916</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>198</v>
+      </c>
+      <c r="J54" t="n">
+        <v>373</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4887636698.338247</v>
+        <v>3941399098.158332</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1355135796367634</v>
+        <v>0.2047278787390207</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02299723225386862</v>
+        <v>0.0291514881546741</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>178</v>
+      </c>
+      <c r="J55" t="n">
+        <v>373</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1651227527.099036</v>
+        <v>1647404238.150522</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1163472099013801</v>
+        <v>0.1066706214963042</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03758434623637139</v>
+        <v>0.0436746872538278</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3007193917.026954</v>
+        <v>4586274473.527726</v>
       </c>
       <c r="F57" t="n">
-        <v>0.158396143993806</v>
+        <v>0.1476393301906319</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02391895814260173</v>
+        <v>0.02397202184320103</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>156</v>
+      </c>
+      <c r="J57" t="n">
+        <v>373</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1190643175.495512</v>
+        <v>1554890266.59251</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1467211560314953</v>
+        <v>0.1968700193286375</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02553644448745132</v>
+        <v>0.03793508124896159</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2514,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4278138715.783701</v>
+        <v>3509685309.328995</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1150652837271472</v>
+        <v>0.1263157339731332</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03426342779041121</v>
+        <v>0.03689839393820311</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>182</v>
+      </c>
+      <c r="J59" t="n">
+        <v>372</v>
+      </c>
+      <c r="K59" t="n">
+        <v>48.77425321821305</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3750494706.222553</v>
+        <v>2402998808.569326</v>
       </c>
       <c r="F60" t="n">
-        <v>0.201770283496272</v>
+        <v>0.1950090004165233</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02637192336424103</v>
+        <v>0.03095925456457069</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>67</v>
+      </c>
+      <c r="J60" t="n">
+        <v>371</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2444397304.437655</v>
+        <v>2701571667.084733</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1308811657393384</v>
+        <v>0.1349841056821956</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03243980076874781</v>
+        <v>0.02797259578650983</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1284955536.610787</v>
+        <v>1817501307.567646</v>
       </c>
       <c r="F62" t="n">
-        <v>0.18333825464895</v>
+        <v>0.1306987737428475</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03027219807587801</v>
+        <v>0.04967329266125368</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3936319014.598472</v>
+        <v>4373653255.616667</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09392890163251741</v>
+        <v>0.08281110935631655</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04457017368503433</v>
+        <v>0.03715645322117999</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>183</v>
+      </c>
+      <c r="J63" t="n">
+        <v>373</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4321386651.328986</v>
+        <v>3410804524.271935</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1158311286301655</v>
+        <v>0.1843874525049847</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02607601896544099</v>
+        <v>0.03331549272333955</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>185</v>
+      </c>
+      <c r="J64" t="n">
+        <v>371</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5371446213.443213</v>
+        <v>5916156067.180511</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1096793327177897</v>
+        <v>0.1327916869120559</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02932703284309054</v>
+        <v>0.02150220436769716</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>282</v>
+      </c>
+      <c r="J65" t="n">
+        <v>372</v>
+      </c>
+      <c r="K65" t="n">
+        <v>55.85390387592729</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5310047267.726677</v>
+        <v>4885943385.282764</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1539788729355418</v>
+        <v>0.1015576895136153</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03254221595108685</v>
+        <v>0.03118120302621238</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>184</v>
+      </c>
+      <c r="J66" t="n">
+        <v>373</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2798,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2355905480.331273</v>
+        <v>2537521250.190081</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08054698970327544</v>
+        <v>0.08305249671372913</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04879603075713794</v>
+        <v>0.03488222746126236</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2833,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3820369544.19368</v>
+        <v>4631220049.028851</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1014797752907533</v>
+        <v>0.1513814796201977</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04541195329724361</v>
+        <v>0.04854978044725843</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>202</v>
+      </c>
+      <c r="J68" t="n">
+        <v>373</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2222582417.917771</v>
+        <v>2160159037.13933</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1749420816305608</v>
+        <v>0.1513988801552758</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05140452437507848</v>
+        <v>0.04509386900750998</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3489165533.234829</v>
+        <v>2250677104.799594</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07851907219854926</v>
+        <v>0.0714009062480678</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03003116775014151</v>
+        <v>0.03011812770565726</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2938,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3457789251.776533</v>
+        <v>3671386536.23346</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1435981130184273</v>
+        <v>0.1855453246815682</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02786400132822413</v>
+        <v>0.02865062178274465</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>268</v>
+      </c>
+      <c r="J71" t="n">
+        <v>372</v>
+      </c>
+      <c r="K71" t="n">
+        <v>52.32103802055835</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2097673741.701611</v>
+        <v>1708892543.939493</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06653119135644288</v>
+        <v>0.06550689941207324</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04761910157731031</v>
+        <v>0.03262896978805339</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2534756050.169989</v>
+        <v>3379586863.40905</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07931381340497971</v>
+        <v>0.08625264088272608</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04821139940388198</v>
+        <v>0.03602982168674653</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3045,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2908277266.981651</v>
+        <v>3940073737.900595</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1707293193541545</v>
+        <v>0.1552583240136114</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02734914657719205</v>
+        <v>0.03070280133185151</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>106</v>
+      </c>
+      <c r="J74" t="n">
+        <v>373</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3074,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2090828227.938434</v>
+        <v>2096100862.359361</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1181777286562078</v>
+        <v>0.166744319174442</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03701518170133692</v>
+        <v>0.02512524361506055</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3109,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3310672721.969291</v>
+        <v>4170869694.452221</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1101969174746166</v>
+        <v>0.1023249298805794</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0255095785627378</v>
+        <v>0.02668165199375214</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>176</v>
+      </c>
+      <c r="J76" t="n">
+        <v>373</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3144,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1772052318.423198</v>
+        <v>2104766753.577073</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1162192974979769</v>
+        <v>0.1302103200048387</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03125605744250542</v>
+        <v>0.0271677773715321</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3179,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3960486147.206397</v>
+        <v>2963795127.122015</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1147880655189188</v>
+        <v>0.1202640474499525</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0522922057871019</v>
+        <v>0.03990508029253345</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>187</v>
+      </c>
+      <c r="J78" t="n">
+        <v>372</v>
+      </c>
+      <c r="K78" t="n">
+        <v>35.58711919671384</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3222,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1293276458.699846</v>
+        <v>1302592068.974792</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1372455454282527</v>
+        <v>0.1219344559838511</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03593801646077962</v>
+        <v>0.03948903774967816</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3257,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3405854729.597577</v>
+        <v>3746820592.115234</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06842118121905805</v>
+        <v>0.09883774230346494</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02938216893748754</v>
+        <v>0.03591653961026951</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>182</v>
+      </c>
+      <c r="J80" t="n">
+        <v>372</v>
+      </c>
+      <c r="K80" t="n">
+        <v>46.11874358859279</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4080806219.63608</v>
+        <v>4381608281.539174</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1360367777820052</v>
+        <v>0.133083909864551</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02973691219660519</v>
+        <v>0.03021272790551077</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>173</v>
+      </c>
+      <c r="J81" t="n">
+        <v>372</v>
+      </c>
+      <c r="K81" t="n">
+        <v>55.2290882962741</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4920472728.371403</v>
+        <v>4802836794.935909</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1495903161246079</v>
+        <v>0.197615365933131</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02519752296379518</v>
+        <v>0.02838562472165819</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>260</v>
+      </c>
+      <c r="J82" t="n">
+        <v>372</v>
+      </c>
+      <c r="K82" t="n">
+        <v>53.80130561726622</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2243448666.588454</v>
+        <v>1964130749.984948</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09687568402411514</v>
+        <v>0.1027733517564698</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03006331057782586</v>
+        <v>0.03735436257366032</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2038710248.097199</v>
+        <v>1935558621.879244</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1114325777316451</v>
+        <v>0.1043704024860463</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04005952373471377</v>
+        <v>0.0438558395149769</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2475838370.892119</v>
+        <v>3377777056.387398</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1595381658536196</v>
+        <v>0.1222019374085735</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05062270007954644</v>
+        <v>0.0556981412300015</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>49</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="n">
+        <v>71.97279026049556</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2133858488.696408</v>
+        <v>1960838926.690016</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1379773586077244</v>
+        <v>0.1680970820846209</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02626268476363717</v>
+        <v>0.0196012882362704</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1445184603.131923</v>
+        <v>1057745307.361873</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1688277257396429</v>
+        <v>0.1401826738985727</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04328519908838083</v>
+        <v>0.03875412412699505</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3506459171.993554</v>
+        <v>2911020670.231573</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1778367678012444</v>
+        <v>0.1652111288606262</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02840429785404024</v>
+        <v>0.03508837499017656</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>47</v>
+      </c>
+      <c r="J88" t="n">
+        <v>372</v>
+      </c>
+      <c r="K88" t="n">
+        <v>49.48405667676362</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2698250808.91</v>
+        <v>3393029417.709655</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1466920339885838</v>
+        <v>0.1599920480633987</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03317596199542885</v>
+        <v>0.04166259323271127</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1943012239.462403</v>
+        <v>1854571800.150988</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09316243763822715</v>
+        <v>0.1267487533395607</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04544571986127166</v>
+        <v>0.04850922704695487</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1308093144.973528</v>
+        <v>2048048275.417598</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1574784220138958</v>
+        <v>0.152086344885495</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0456326067784751</v>
+        <v>0.04214970309958002</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2850642818.610441</v>
+        <v>1949009197.597643</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07473243544013998</v>
+        <v>0.1003304071038704</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04601694972975516</v>
+        <v>0.02943442527346393</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3079199766.340348</v>
+        <v>4444317962.408059</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1009864805512431</v>
+        <v>0.1340564768475448</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04523222880461145</v>
+        <v>0.03688273406421043</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>174</v>
+      </c>
+      <c r="J93" t="n">
+        <v>373</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2073820788.233277</v>
+        <v>2530274266.217812</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1481356338135446</v>
+        <v>0.1094000370057806</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03906937396398477</v>
+        <v>0.035186248165507</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2178151642.068358</v>
+        <v>2853573797.230103</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1373414822299149</v>
+        <v>0.1370427689479475</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03528961982895745</v>
+        <v>0.04569722323244222</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1823776952.652523</v>
+        <v>2118813653.632594</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09261244916069079</v>
+        <v>0.1115474585880007</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03650688510543006</v>
+        <v>0.04689851577367402</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4204037564.993125</v>
+        <v>3409785958.280721</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1747846421838735</v>
+        <v>0.1623443141038892</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02468983103262151</v>
+        <v>0.01956363520877829</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>193</v>
+      </c>
+      <c r="J97" t="n">
+        <v>371</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3215560512.105843</v>
+        <v>3507545889.810769</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0892254872069274</v>
+        <v>0.09058196663434995</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03147849006738542</v>
+        <v>0.02712569914442769</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>94</v>
+      </c>
+      <c r="J98" t="n">
+        <v>373</v>
+      </c>
+      <c r="K98" t="n">
+        <v>58.01137133651363</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2153717351.905914</v>
+        <v>2591811298.596041</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09577715131529034</v>
+        <v>0.132001594727477</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02236273331638267</v>
+        <v>0.02712052979114552</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3442591170.831648</v>
+        <v>4374462145.041079</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1184171569243674</v>
+        <v>0.1202767155211557</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01934663920266556</v>
+        <v>0.02143878596442325</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>170</v>
+      </c>
+      <c r="J100" t="n">
+        <v>373</v>
+      </c>
+      <c r="K100" t="n">
+        <v>58.73094551375416</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3086703105.314716</v>
+        <v>2796818864.427063</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2207983316488617</v>
+        <v>0.1778652137251129</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04466209917588546</v>
+        <v>0.0496247913421316</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
